--- a/inventory_import.xlsx
+++ b/inventory_import.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gennaro\Downloads\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gennaro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32786AF8-D4FB-4592-A4C5-826A0BF2A039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D32EE30-2ED0-453A-A45A-825969C9F32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="405" yWindow="780" windowWidth="27540" windowHeight="15345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -19,58 +19,12 @@
     <sheet name="Filaments" sheetId="4" r:id="rId4"/>
     <sheet name="Instruments" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="76">
-  <si>
-    <t>91 Dispatcher — Inventory Import Template</t>
-  </si>
-  <si>
-    <t>Fill in each sheet with your items. Leave unused rows blank. Required fields are marked with *.</t>
-  </si>
-  <si>
-    <t>Sheets:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  • Firearms</t>
-  </si>
-  <si>
-    <t>Handguns, rifles, shotguns, suppressors, SBRs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  • Ammo</t>
-  </si>
-  <si>
-    <t>Ammunition by caliber — quantity in units + rounds per unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  • Filaments</t>
-  </si>
-  <si>
-    <t>3D printing filament spools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  • Instruments</t>
-  </si>
-  <si>
-    <t>Guitars, basses, amps, pedals, keyboards</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="155">
   <si>
     <t>Name *</t>
   </si>
@@ -78,22 +32,25 @@
     <t>Brand</t>
   </si>
   <si>
-    <t>Type *</t>
-  </si>
-  <si>
-    <t>Caliber</t>
-  </si>
-  <si>
-    <t>Serial #</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Barrel Length</t>
-  </si>
-  <si>
-    <t>Finish</t>
+    <t>Caliber *</t>
+  </si>
+  <si>
+    <t>Unit *</t>
+  </si>
+  <si>
+    <t>Quantity *</t>
+  </si>
+  <si>
+    <t>Rounds / Unit</t>
+  </si>
+  <si>
+    <t>Grain</t>
+  </si>
+  <si>
+    <t>Bullet Type</t>
+  </si>
+  <si>
+    <t>Velocity (fps)</t>
   </si>
   <si>
     <t>Date Purchased
@@ -109,36 +66,180 @@
     <t>Currency</t>
   </si>
   <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>American Eagle TMJ AE65CRD3</t>
+  </si>
+  <si>
+    <t>Federal</t>
+  </si>
+  <si>
+    <t>6.5 Creedmoor</t>
+  </si>
+  <si>
+    <t>BOX</t>
+  </si>
+  <si>
+    <t>FMJ</t>
+  </si>
+  <si>
+    <t>SG Ammo</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>ELD Match Ammo</t>
+  </si>
+  <si>
+    <t>Hornady</t>
+  </si>
+  <si>
+    <t>Number 4 Buck</t>
+  </si>
+  <si>
+    <t>12 Gauge</t>
+  </si>
+  <si>
+    <t>300BLKB</t>
+  </si>
+  <si>
+    <t>Magtech</t>
+  </si>
+  <si>
+    <t>.300 Blackout</t>
+  </si>
+  <si>
+    <t>CASE</t>
+  </si>
+  <si>
+    <t>Amax Hornady Black</t>
+  </si>
+  <si>
+    <t>M193 Ball CBC</t>
+  </si>
+  <si>
+    <t>5.56x45mm NATO</t>
+  </si>
+  <si>
+    <t>+P HST</t>
+  </si>
+  <si>
+    <t>9mm Luger</t>
+  </si>
+  <si>
+    <t>HST</t>
+  </si>
+  <si>
+    <t>First Defense 556B</t>
+  </si>
+  <si>
+    <t>Range USA</t>
+  </si>
+  <si>
+    <t>XRG Defense</t>
+  </si>
+  <si>
+    <t>Sellier &amp; Bellot</t>
+  </si>
+  <si>
+    <t>.45 ACP</t>
+  </si>
+  <si>
+    <t>JHP</t>
+  </si>
+  <si>
+    <t>3 used by 2/28/2026</t>
+  </si>
+  <si>
+    <t>.380 ACP</t>
+  </si>
+  <si>
+    <t>Elite Defense</t>
+  </si>
+  <si>
+    <t>Sig Sauer</t>
+  </si>
+  <si>
+    <t>Magtech 45 ACP</t>
+  </si>
+  <si>
+    <t>Magtech 9mm</t>
+  </si>
+  <si>
+    <t>stock at 2/28/2026; about 12.99 per box</t>
+  </si>
+  <si>
+    <t>Blazer Brass</t>
+  </si>
+  <si>
+    <t>CCI</t>
+  </si>
+  <si>
+    <t>Punch Personal Defense</t>
+  </si>
+  <si>
+    <t>91 Dispatcher — Inventory Import Template</t>
+  </si>
+  <si>
+    <t>Fill in each sheet with your items. Leave unused rows blank. Required fields are marked with *.</t>
+  </si>
+  <si>
+    <t>Sheets:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  • Firearms</t>
+  </si>
+  <si>
+    <t>Handguns, rifles, shotguns, suppressors, SBRs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  • Ammo</t>
+  </si>
+  <si>
+    <t>Ammunition by caliber — quantity in units + rounds per unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  • Filaments</t>
+  </si>
+  <si>
+    <t>3D printing filament spools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  • Instruments</t>
+  </si>
+  <si>
+    <t>Guitars, basses, amps, pedals, keyboards</t>
+  </si>
+  <si>
+    <t>Type *</t>
+  </si>
+  <si>
+    <t>Caliber</t>
+  </si>
+  <si>
+    <t>Serial #</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Barrel Length</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Caliber *</t>
-  </si>
-  <si>
-    <t>Unit *</t>
-  </si>
-  <si>
-    <t>Quantity *</t>
-  </si>
-  <si>
-    <t>Rounds / Unit</t>
-  </si>
-  <si>
-    <t>Grain</t>
-  </si>
-  <si>
-    <t>Bullet Type</t>
-  </si>
-  <si>
-    <t>Velocity (fps)</t>
-  </si>
-  <si>
     <t>Material *</t>
   </si>
   <si>
+    <t>Variant</t>
+  </si>
+  <si>
     <t>Color</t>
   </si>
   <si>
@@ -148,6 +249,216 @@
     <t>Diameter (mm) *</t>
   </si>
   <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Bambu Lab ABS - White</t>
+  </si>
+  <si>
+    <t>Bambu Lab</t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Bambu Lab PETG HF - Blue</t>
+  </si>
+  <si>
+    <t>PETG</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Bambu Lab PETG HF - Black</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Bambu Lab ASA - Black</t>
+  </si>
+  <si>
+    <t>ASA</t>
+  </si>
+  <si>
+    <t>Bambu Lab PETG HF - Red</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Bambu Lab PETG Translucent</t>
+  </si>
+  <si>
+    <t>Translucent</t>
+  </si>
+  <si>
+    <t>Bambu Lab PETG-CF - Black</t>
+  </si>
+  <si>
+    <t>PETG_CF</t>
+  </si>
+  <si>
+    <t>Bambu Lab ABS - Black</t>
+  </si>
+  <si>
+    <t>Bambu Lab TPU 95A HF - Gray</t>
+  </si>
+  <si>
+    <t>TPU</t>
+  </si>
+  <si>
+    <t>95A HF</t>
+  </si>
+  <si>
+    <t>Gray</t>
+  </si>
+  <si>
+    <t>Bambu Lab TPU 95A HF - Black</t>
+  </si>
+  <si>
+    <t>Bambu Lab TPU for AMS - Black</t>
+  </si>
+  <si>
+    <t>for AMS</t>
+  </si>
+  <si>
+    <t>Bambu Lab TPU for AMS - Gray</t>
+  </si>
+  <si>
+    <t>Bambu Lab TPU for AMS - Yellow</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Bambu Lab PLA Translucent - Orange</t>
+  </si>
+  <si>
+    <t>PLA</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Bambu Lab PLA Translucent - Cherry Pink</t>
+  </si>
+  <si>
+    <t>Cherry Pink</t>
+  </si>
+  <si>
+    <t>Bambu Lab PLA Basic - Dark Gray</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Dark Gray</t>
+  </si>
+  <si>
+    <t>Bambu Lab PLA Basic - Pumpkin Orange</t>
+  </si>
+  <si>
+    <t>Pumpkin Orange</t>
+  </si>
+  <si>
+    <t>Bambu Lab PLA Basic - Sunflower Yellow</t>
+  </si>
+  <si>
+    <t>Sunflower Yellow</t>
+  </si>
+  <si>
+    <t>Bambu Lab PLA Matte - Dark Red</t>
+  </si>
+  <si>
+    <t>Matte</t>
+  </si>
+  <si>
+    <t>Dark Red</t>
+  </si>
+  <si>
+    <t>Bambu Lab PA6-GF - Black</t>
+  </si>
+  <si>
+    <t>PA6_GF</t>
+  </si>
+  <si>
+    <t>Overture TPU - Orange</t>
+  </si>
+  <si>
+    <t>Overture</t>
+  </si>
+  <si>
+    <t>Overture TPU - Purple</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>PLA_CF</t>
+  </si>
+  <si>
+    <t>Bambu Lab PLA-CF - Light Gray</t>
+  </si>
+  <si>
+    <t>Light Gray</t>
+  </si>
+  <si>
+    <t>Bambu Lab PLA Sparkle - Black</t>
+  </si>
+  <si>
+    <t>Sparkle</t>
+  </si>
+  <si>
+    <t>Bambu Lab PLA Sparkle - Gold</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Bambu Lab PLA Sparkle - Purple</t>
+  </si>
+  <si>
+    <t>Silk</t>
+  </si>
+  <si>
+    <t>Bambu Lab PLA Metal - Copper</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Bambu Lab PLA Metal - Green</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Bambu Lab PLA Metal - Silver</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Bambu Lab PLA Metal - Tan</t>
+  </si>
+  <si>
+    <t>Tan</t>
+  </si>
+  <si>
+    <t>Bambu Lab PLA Metal - Blue</t>
+  </si>
+  <si>
     <t>Strings</t>
   </si>
   <si>
@@ -157,115 +468,28 @@
     <t>Body Material</t>
   </si>
   <si>
-    <t>Federal</t>
-  </si>
-  <si>
-    <t>6.5 Creedmoor</t>
-  </si>
-  <si>
-    <t>BOX</t>
-  </si>
-  <si>
-    <t>American Eagle TMJ AE65CRD3</t>
-  </si>
-  <si>
-    <t>SG Ammo</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>ELD Match Ammo</t>
-  </si>
-  <si>
-    <t>Hornady</t>
-  </si>
-  <si>
-    <t>Number 4 Buck</t>
-  </si>
-  <si>
-    <t>12 Gauge</t>
-  </si>
-  <si>
-    <t>.300 Blackout</t>
-  </si>
-  <si>
-    <t>CASE</t>
-  </si>
-  <si>
-    <t>FMJ</t>
-  </si>
-  <si>
-    <t>Magtech</t>
-  </si>
-  <si>
-    <t>300BLKB</t>
-  </si>
-  <si>
-    <t>Amax Hornady Black</t>
-  </si>
-  <si>
-    <t>M193 Ball CBC</t>
-  </si>
-  <si>
-    <t>5.56x45mm NATO</t>
-  </si>
-  <si>
-    <t>+P HST</t>
-  </si>
-  <si>
-    <t>9mm Luger</t>
-  </si>
-  <si>
-    <t>HST</t>
-  </si>
-  <si>
-    <t>First Defense 556B</t>
-  </si>
-  <si>
-    <t>Range USA</t>
-  </si>
-  <si>
-    <t>XRG Defense</t>
-  </si>
-  <si>
-    <t>Sellier &amp; Bellot</t>
-  </si>
-  <si>
-    <t>.45 ACP</t>
-  </si>
-  <si>
-    <t>JHP</t>
-  </si>
-  <si>
-    <t>3 used by 2/28/2026</t>
-  </si>
-  <si>
-    <t>.380 ACP</t>
-  </si>
-  <si>
-    <t>Elite Defense</t>
-  </si>
-  <si>
-    <t>Sig Sauer</t>
-  </si>
-  <si>
-    <t>Magtech 45 ACP</t>
-  </si>
-  <si>
-    <t>Magtech 9mm</t>
-  </si>
-  <si>
-    <t>Blazer Brass</t>
-  </si>
-  <si>
-    <t>CCI</t>
-  </si>
-  <si>
-    <t>stock at 2/28/2026; about 12.99 per box</t>
-  </si>
-  <si>
-    <t>Punch Personal Defense</t>
+    <t>Bambu Lab PLA Matte - Dark Green</t>
+  </si>
+  <si>
+    <t>Dark Green</t>
+  </si>
+  <si>
+    <t>Bambu Lab PLA-CF - Black</t>
+  </si>
+  <si>
+    <t>Bambu Lab PLA-CF - Royal Blue</t>
+  </si>
+  <si>
+    <t>Bambu Lab PLA Sparkle - Gray</t>
+  </si>
+  <si>
+    <t>Bambu Lab PLA Silk - Neon City</t>
+  </si>
+  <si>
+    <t>Neon City</t>
+  </si>
+  <si>
+    <t>Bambu Lab PLA Matte - Charcoal</t>
   </si>
 </sst>
 </file>
@@ -273,9 +497,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +534,12 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -365,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -380,10 +610,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -393,6 +623,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -710,51 +952,51 @@
     <col min="2" max="2" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -790,46 +1032,46 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="M1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2455,7 +2697,7 @@
   </sheetPr>
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N20" sqref="N20"/>
     </sheetView>
@@ -2478,60 +2720,60 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="N1" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
@@ -2543,7 +2785,7 @@
         <v>120</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I2" s="6">
         <v>2900</v>
@@ -2552,28 +2794,28 @@
         <v>46074</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="L2" s="6">
         <v>219.5</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E3" s="7">
         <v>2</v>
@@ -2585,7 +2827,7 @@
         <v>140</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I3" s="7">
         <v>2710</v>
@@ -2594,28 +2836,28 @@
         <v>46074</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="L3" s="7">
         <v>71.900000000000006</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -2630,28 +2872,28 @@
         <v>46074</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="L4" s="6">
         <v>74.900000000000006</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E5" s="7">
         <v>1</v>
@@ -2663,7 +2905,7 @@
         <v>123</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I5" s="7">
         <v>2230</v>
@@ -2672,28 +2914,28 @@
         <v>46074</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="L5" s="7">
         <v>179.5</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E6" s="6">
         <v>5</v>
@@ -2705,35 +2947,35 @@
         <v>208</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="8">
         <v>46074</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="L6" s="6">
         <v>139.75</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -2745,35 +2987,35 @@
         <v>55</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="9">
         <v>46042</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="L7" s="7">
         <v>643.5</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
@@ -2785,35 +3027,35 @@
         <v>124</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="8">
         <v>46042</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="L8" s="6">
         <v>279.5</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E9" s="7">
         <v>1</v>
@@ -2825,35 +3067,35 @@
         <v>55</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="9">
         <v>46042</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7">
         <v>459.5</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
@@ -2865,35 +3107,35 @@
         <v>62</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="8">
         <v>46042</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="L10" s="6">
         <v>459.8</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E11" s="7">
         <v>10</v>
@@ -2905,35 +3147,35 @@
         <v>124</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="9">
         <v>45691</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7">
         <v>359.9</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E12" s="6">
         <v>3</v>
@@ -2945,35 +3187,35 @@
         <v>165</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="8">
         <v>45731</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="L12" s="6">
         <v>50.97</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E13" s="7">
         <v>6</v>
@@ -2985,37 +3227,37 @@
         <v>100</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="9">
         <v>45731</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="L13" s="7">
         <v>83.94</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E14" s="6">
         <v>3</v>
@@ -3027,35 +3269,35 @@
         <v>77</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="8">
         <v>45731</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="L14" s="6">
         <v>41.97</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E15" s="7">
         <v>2</v>
@@ -3067,35 +3309,35 @@
         <v>230</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="9">
         <v>45655</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7">
         <v>51.98</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E16" s="6">
         <v>5</v>
@@ -3107,35 +3349,35 @@
         <v>230</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="8">
         <v>45655</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="L16" s="6">
         <v>124.95</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E17" s="7">
         <v>34</v>
@@ -3147,7 +3389,7 @@
         <v>115</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="9"/>
@@ -3155,21 +3397,21 @@
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="11" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E18" s="6">
         <v>2</v>
@@ -3181,35 +3423,35 @@
         <v>230</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="8">
         <v>45724</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="L18" s="6">
         <v>65.98</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E19" s="7">
         <v>2</v>
@@ -3221,35 +3463,35 @@
         <v>95</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="9">
         <v>45724</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7">
         <v>57.98</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N19" s="7"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E20" s="6">
         <v>6</v>
@@ -3261,20 +3503,20 @@
         <v>124</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="8">
         <v>45599</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="L20" s="6">
         <v>101.94</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N20" s="6"/>
     </row>
@@ -4587,7 +4829,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4596,1371 +4838,1388 @@
   <sheetPr>
     <tabColor rgb="FF8B5CF6"/>
   </sheetPr>
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="1" max="1" width="46.85546875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="M1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H2" s="14">
+        <v>1</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="7"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="7"/>
+      <c r="M2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H3" s="14">
+        <v>1</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H4" s="14">
+        <v>1</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H5" s="14">
+        <v>2</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H6" s="14">
+        <v>1</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H7" s="14">
+        <v>1</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H8" s="14">
+        <v>1</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H9" s="14">
+        <v>1</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H10" s="14">
+        <v>3</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H11" s="14">
+        <v>2</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H13" s="14">
+        <v>1</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H14" s="14">
+        <v>3</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H15" s="14">
+        <v>1</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G16" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H16" s="14">
+        <v>2</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H17" s="14">
+        <v>1</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H18" s="14">
+        <v>1</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G19" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H19" s="14">
+        <v>1</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G20" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H20" s="14">
+        <v>1</v>
+      </c>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G21" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H21" s="14">
+        <v>1</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H22" s="14">
+        <v>1</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G23" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H23" s="14">
+        <v>2</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G24" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H24" s="14">
+        <v>1</v>
+      </c>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="14"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G25" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H25" s="14">
+        <v>1</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G26" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H26" s="14">
+        <v>1</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G27" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H27" s="14">
+        <v>1</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="14"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G28" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H28" s="14">
+        <v>1</v>
+      </c>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="14"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G29" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H29" s="14">
+        <v>1</v>
+      </c>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="14"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G30" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H30" s="14">
+        <v>2</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="14"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G31" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H31" s="14">
+        <v>1</v>
+      </c>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="14"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G32" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H32" s="14">
+        <v>1</v>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="14"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G33" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H33" s="14">
+        <v>1</v>
+      </c>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="14"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G34" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H34" s="14">
+        <v>1</v>
+      </c>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="14"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G35" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H35" s="14">
+        <v>1</v>
+      </c>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="14"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G36" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H36" s="14">
+        <v>1</v>
+      </c>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="14"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G37" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H37" s="14">
+        <v>1</v>
+      </c>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="14"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G38" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H38" s="14">
+        <v>1</v>
+      </c>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="14"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" s="14">
+        <v>1000</v>
+      </c>
+      <c r="G39" s="14">
+        <v>1.75</v>
+      </c>
+      <c r="H39" s="14">
+        <v>1</v>
+      </c>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="14"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M42">
+    <sortCondition ref="A2:A42"/>
+  </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="C2:C200" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C186" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"PLA,ABS,PETG,TPU,ASA,NYLON,OTHER"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F200" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F186" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"1.75,2.85"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J200" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J186" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"USD,EUR,GBP,CAD,AUD,JPY,CHF,MXN,BRL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5997,46 +6256,46 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="M1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
